--- a/Data/RV4_travels_private.xlsx
+++ b/Data/RV4_travels_private.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -384,84 +384,87 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
-        <v>1998</v>
-      </c>
-      <c r="C1" s="1">
-        <v>2003</v>
-      </c>
-      <c r="D1" s="1">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>2008</v>
       </c>
-      <c r="E1" s="1">
+      <c r="B2" s="1">
+        <v>17873.635440000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>2009</v>
       </c>
-      <c r="F1" s="1">
+      <c r="B3" s="1">
+        <v>15932.3683</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>2010</v>
       </c>
-      <c r="G1" s="1">
+      <c r="B4" s="1">
+        <v>15554.491840000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>2011</v>
       </c>
-      <c r="H1" s="1">
+      <c r="B5" s="1">
+        <v>15489.816060000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>2012</v>
       </c>
-      <c r="I1" s="1">
+      <c r="B6" s="1">
+        <v>16890.79897</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>2013</v>
       </c>
-      <c r="J1" s="1">
+      <c r="B7" s="1">
+        <v>18442.00488</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>2014</v>
       </c>
-      <c r="K1" s="1">
+      <c r="B8" s="1">
+        <v>17835.548739999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>2015</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>17596.236000000001</v>
-      </c>
-      <c r="C2" s="1">
-        <v>16283</v>
-      </c>
-      <c r="D2" s="1">
-        <v>17873.635440000002</v>
-      </c>
-      <c r="E2" s="1">
-        <v>15932.3683</v>
-      </c>
-      <c r="F2" s="1">
-        <v>15554.491840000001</v>
-      </c>
-      <c r="G2" s="1">
-        <v>15489.816060000001</v>
-      </c>
-      <c r="H2" s="1">
-        <v>16890.79897</v>
-      </c>
-      <c r="I2" s="1">
-        <v>18442.00488</v>
-      </c>
-      <c r="J2" s="1">
-        <v>17835.548739999998</v>
-      </c>
-      <c r="K2" s="1">
+      <c r="B9" s="1">
         <v>18820.167510000003</v>
       </c>
     </row>

--- a/Data/RV4_travels_private.xlsx
+++ b/Data/RV4_travels_private.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
-    <sheet name="Folha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -29,20 +29,32 @@
     <t>year</t>
   </si>
   <si>
-    <t>     travels_private</t>
+    <t>travels_private</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -65,11 +77,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -384,87 +397,74 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD3"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="1">
+        <v>2008</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2009</v>
+      </c>
+      <c r="D1" s="1">
+        <v>2010</v>
+      </c>
+      <c r="E1" s="1">
+        <v>2011</v>
+      </c>
+      <c r="F1" s="1">
+        <v>2012</v>
+      </c>
+      <c r="G1" s="1">
+        <v>2013</v>
+      </c>
+      <c r="H1" s="1">
+        <v>2014</v>
+      </c>
+      <c r="I1" s="1">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>2008</v>
       </c>
       <c r="B2" s="1">
         <v>17873.635440000002</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2009</v>
-      </c>
-      <c r="B3" s="1">
+      <c r="C2" s="1">
         <v>15932.3683</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>2010</v>
-      </c>
-      <c r="B4" s="1">
+      <c r="D2" s="1">
         <v>15554.491840000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>2011</v>
-      </c>
-      <c r="B5" s="1">
+      <c r="E2" s="1">
         <v>15489.816060000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>2012</v>
-      </c>
-      <c r="B6" s="1">
+      <c r="F2" s="1">
         <v>16890.79897</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>2013</v>
-      </c>
-      <c r="B7" s="1">
+      <c r="G2" s="1">
         <v>18442.00488</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>2014</v>
-      </c>
-      <c r="B8" s="1">
+      <c r="H2" s="1">
         <v>17835.548739999998</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>2015</v>
-      </c>
-      <c r="B9" s="1">
+      <c r="I2" s="1">
         <v>18820.167510000003</v>
       </c>
     </row>
